--- a/词汇目录.xlsx
+++ b/词汇目录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dict\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18D3ADA-4F0A-49E6-9239-B9B762A4955E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3E12F2-A4CF-4C2B-A069-DE493D421BC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="218">
   <si>
     <t>序号</t>
   </si>
@@ -63,616 +63,626 @@
     <t>六级真题核心词（图片记忆）</t>
   </si>
   <si>
+    <t>六级、有道</t>
+  </si>
+  <si>
+    <t>考研必考词汇</t>
+  </si>
+  <si>
+    <t>考研、有道</t>
+  </si>
+  <si>
+    <t>专四真题高频词</t>
+  </si>
+  <si>
+    <t>Level4luan_1</t>
+  </si>
+  <si>
+    <t>专四、有道</t>
+  </si>
+  <si>
+    <t>专八真题高频词</t>
+  </si>
+  <si>
+    <t>Level8_1</t>
+  </si>
+  <si>
+    <t>专八、有道</t>
+  </si>
+  <si>
+    <t>四级英语词汇</t>
+  </si>
+  <si>
+    <t>CET4luan_2</t>
+  </si>
+  <si>
+    <t>六级英语词汇</t>
+  </si>
+  <si>
+    <t>CET6_2</t>
+  </si>
+  <si>
+    <t>考研英语词汇</t>
+  </si>
+  <si>
+    <t>KaoYan_2</t>
+  </si>
+  <si>
+    <t>专四核心词汇</t>
+  </si>
+  <si>
+    <t>Level4luan_2</t>
+  </si>
+  <si>
+    <t>专八核心词汇</t>
+  </si>
+  <si>
+    <t>Level8luan_2</t>
+  </si>
+  <si>
+    <t>新东方四级词汇</t>
+  </si>
+  <si>
+    <t>CET4_3</t>
+  </si>
+  <si>
+    <t>四级、新东方</t>
+  </si>
+  <si>
+    <t>新东方六级词汇</t>
+  </si>
+  <si>
+    <t>CET6_3</t>
+  </si>
+  <si>
+    <t>六级、新东方</t>
+  </si>
+  <si>
+    <t>新东方考研词汇</t>
+  </si>
+  <si>
+    <t>KaoYan_3</t>
+  </si>
+  <si>
+    <t>考研、新东方</t>
+  </si>
+  <si>
+    <t>四级真题核心词（正序版）</t>
+  </si>
+  <si>
+    <t>CET4_1</t>
+  </si>
+  <si>
+    <t>有道</t>
+  </si>
+  <si>
+    <t>六级真题核心词（正序版）</t>
+  </si>
+  <si>
+    <t>CET6_1</t>
+  </si>
+  <si>
+    <t>考研必考词汇（正序版）</t>
+  </si>
+  <si>
+    <t>KaoYan_1</t>
+  </si>
+  <si>
+    <t>专四真题高频词（正序版）</t>
+  </si>
+  <si>
+    <t>Level4_1</t>
+  </si>
+  <si>
+    <t>四级英语词汇（正序版）</t>
+  </si>
+  <si>
+    <t>CET4_2</t>
+  </si>
+  <si>
+    <t>专四核心词汇（正序版）</t>
+  </si>
+  <si>
+    <t>Level4_2</t>
+  </si>
+  <si>
+    <t>专八核心词汇（正序版）</t>
+  </si>
+  <si>
+    <t>Level8_2</t>
+  </si>
+  <si>
+    <t>雅思词汇</t>
+  </si>
+  <si>
+    <t>IELTSluan_2</t>
+  </si>
+  <si>
+    <t>IELTS、有道</t>
+  </si>
+  <si>
+    <t>TOEFL词汇</t>
+  </si>
+  <si>
+    <t>TOEFL_2</t>
+  </si>
+  <si>
+    <t>TOEFL、有道</t>
+  </si>
+  <si>
+    <t>GRE词汇</t>
+  </si>
+  <si>
+    <t>GRE 词汇</t>
+  </si>
+  <si>
+    <t>GRE_2</t>
+  </si>
+  <si>
+    <t>GRE、有道</t>
+  </si>
+  <si>
+    <t>SAT词汇</t>
+  </si>
+  <si>
+    <t>SAT 词汇</t>
+  </si>
+  <si>
+    <t>SAT_2</t>
+  </si>
+  <si>
+    <t>SAT、有道</t>
+  </si>
+  <si>
+    <t>GMAT词汇</t>
+  </si>
+  <si>
+    <t>GMAT 词汇</t>
+  </si>
+  <si>
+    <t>GMATluan_2</t>
+  </si>
+  <si>
+    <t>GMAT、有道</t>
+  </si>
+  <si>
+    <t>新东方雅思词汇</t>
+  </si>
+  <si>
+    <t>IELTS_3</t>
+  </si>
+  <si>
+    <t>IELTS、新东方</t>
+  </si>
+  <si>
+    <t>新东方TOEFL词汇</t>
+  </si>
+  <si>
+    <t>新东方 TOEFL 词汇</t>
+  </si>
+  <si>
+    <t>TOEFL_3</t>
+  </si>
+  <si>
+    <t>TOEFL、新东方</t>
+  </si>
+  <si>
+    <t>新东方GRE词汇</t>
+  </si>
+  <si>
+    <t>新东方 GRE 词汇</t>
+  </si>
+  <si>
+    <t>GRE_3</t>
+  </si>
+  <si>
+    <t>GRE、新东方</t>
+  </si>
+  <si>
+    <t>新东方SAT词汇</t>
+  </si>
+  <si>
+    <t>新东方 SAT 词汇</t>
+  </si>
+  <si>
+    <t>SAT_3</t>
+  </si>
+  <si>
+    <t>SAT、新东方</t>
+  </si>
+  <si>
+    <t>新东方GMAT词汇</t>
+  </si>
+  <si>
+    <t>新东方 GMAT 词汇</t>
+  </si>
+  <si>
+    <t>GMAT_3</t>
+  </si>
+  <si>
+    <t>GMAT、新东方</t>
+  </si>
+  <si>
+    <t>雅思词汇（正序版）</t>
+  </si>
+  <si>
+    <t>IELTS_2</t>
+  </si>
+  <si>
+    <t>GMAT词汇（正序版）</t>
+  </si>
+  <si>
+    <t>GMAT 词汇（正序版）</t>
+  </si>
+  <si>
+    <t>GMAT_2</t>
+  </si>
+  <si>
+    <t>中考必备词汇</t>
+  </si>
+  <si>
+    <t>ChuZhongluan_2</t>
+  </si>
+  <si>
+    <t>高考必备词汇（图片记忆）</t>
+  </si>
+  <si>
+    <t>GaoZhongluan_2</t>
+  </si>
+  <si>
+    <t>新东方初中词汇</t>
+  </si>
+  <si>
+    <t>ChuZhong_3</t>
+  </si>
+  <si>
+    <t>新东方</t>
+  </si>
+  <si>
+    <t>新东方高中词汇</t>
+  </si>
+  <si>
+    <t>GaoZhong_3</t>
+  </si>
+  <si>
+    <t>人教版小学英语-三年级上册</t>
+  </si>
+  <si>
+    <t>PEPXiaoXue3_1</t>
+  </si>
+  <si>
+    <t>人教版</t>
+  </si>
+  <si>
+    <t>人教版小学英语-三年级下册</t>
+  </si>
+  <si>
+    <t>PEPXiaoXue3_2</t>
+  </si>
+  <si>
+    <t>人教版小学英语-四年级上册</t>
+  </si>
+  <si>
+    <t>PEPXiaoXue4_1</t>
+  </si>
+  <si>
+    <t>人教版小学英语-四年级下册</t>
+  </si>
+  <si>
+    <t>PEPXiaoXue4_2</t>
+  </si>
+  <si>
+    <t>人教版小学英语-五年级上册</t>
+  </si>
+  <si>
+    <t>PEPXiaoXue5_1</t>
+  </si>
+  <si>
+    <t>人教版小学英语-五年级下册</t>
+  </si>
+  <si>
+    <t>PEPXiaoXue5_2</t>
+  </si>
+  <si>
+    <t>人教版小学英语-六年级上册</t>
+  </si>
+  <si>
+    <t>PEPXiaoXue6_1</t>
+  </si>
+  <si>
+    <t>人教版小学英语-六年级下册</t>
+  </si>
+  <si>
+    <t>PEPXiaoXue6_2</t>
+  </si>
+  <si>
+    <t>人教版初中英语-七年级上册</t>
+  </si>
+  <si>
+    <t>PEPChuZhong7_1</t>
+  </si>
+  <si>
+    <t>人教版初中英语-七年级下册</t>
+  </si>
+  <si>
+    <t>PEPChuZhong7_2</t>
+  </si>
+  <si>
+    <t>人教版初中英语-八年级上册</t>
+  </si>
+  <si>
+    <t>PEPChuZhong8_1</t>
+  </si>
+  <si>
+    <t>人教版初中英语-八年级下册</t>
+  </si>
+  <si>
+    <t>PEPChuZhong8_2</t>
+  </si>
+  <si>
+    <t>人教版初中英语-九年级全册</t>
+  </si>
+  <si>
+    <t>PEPChuZhong9_1</t>
+  </si>
+  <si>
+    <t>外研社版初中英语-七年级上册</t>
+  </si>
+  <si>
+    <t>WaiYanSheChuZhong_1</t>
+  </si>
+  <si>
+    <t>外研社版</t>
+  </si>
+  <si>
+    <t>外研社版初中英语-七年级下册</t>
+  </si>
+  <si>
+    <t>WaiYanSheChuZhong_2</t>
+  </si>
+  <si>
+    <t>外研社版初中英语-八年级上册</t>
+  </si>
+  <si>
+    <t>WaiYanSheChuZhong_3</t>
+  </si>
+  <si>
+    <t>外研社版初中英语-八年级下册</t>
+  </si>
+  <si>
+    <t>WaiYanSheChuZhong_4</t>
+  </si>
+  <si>
+    <t>外研社版初中英语-九年级上册</t>
+  </si>
+  <si>
+    <t>WaiYanSheChuZhong_5</t>
+  </si>
+  <si>
+    <t>外研社版初中英语-九年级下册</t>
+  </si>
+  <si>
+    <t>WaiYanSheChuZhong_6</t>
+  </si>
+  <si>
+    <t>人教版高中英语-必修1</t>
+  </si>
+  <si>
+    <t>人教版高中英语-必修 1</t>
+  </si>
+  <si>
+    <t>PEPGaoZhong_1</t>
+  </si>
+  <si>
+    <t>人教版高中英语-必修2</t>
+  </si>
+  <si>
+    <t>人教版高中英语-必修 2</t>
+  </si>
+  <si>
+    <t>PEPGaoZhong_2</t>
+  </si>
+  <si>
+    <t>人教版高中英语-必修3</t>
+  </si>
+  <si>
+    <t>人教版高中英语-必修 3</t>
+  </si>
+  <si>
+    <t>PEPGaoZhong_3</t>
+  </si>
+  <si>
+    <t>人教版高中英语-必修4</t>
+  </si>
+  <si>
+    <t>人教版高中英语-必修 4</t>
+  </si>
+  <si>
+    <t>PEPGaoZhong_4</t>
+  </si>
+  <si>
+    <t>人教版高中英语-必修5</t>
+  </si>
+  <si>
+    <t>人教版高中英语-必修 5</t>
+  </si>
+  <si>
+    <t>PEPGaoZhong_5</t>
+  </si>
+  <si>
+    <t>人教版高中英语-选修6</t>
+  </si>
+  <si>
+    <t>人教版高中英语-选修 6</t>
+  </si>
+  <si>
+    <t>PEPGaoZhong_6</t>
+  </si>
+  <si>
+    <t>人教版高中英语-选修7</t>
+  </si>
+  <si>
+    <t>人教版高中英语-选修 7</t>
+  </si>
+  <si>
+    <t>PEPGaoZhong_7</t>
+  </si>
+  <si>
+    <t>人教版高中英语-选修8</t>
+  </si>
+  <si>
+    <t>人教版高中英语-选修 8</t>
+  </si>
+  <si>
+    <t>PEPGaoZhong_8</t>
+  </si>
+  <si>
+    <t>人教版高中英语-选修9</t>
+  </si>
+  <si>
+    <t>人教版高中英语-选修 9</t>
+  </si>
+  <si>
+    <t>PEPGaoZhong_9</t>
+  </si>
+  <si>
+    <t>人教版高中英语-选修10</t>
+  </si>
+  <si>
+    <t>人教版高中英语-选修 10</t>
+  </si>
+  <si>
+    <t>PEPGaoZhong_10</t>
+  </si>
+  <si>
+    <t>人教版高中英语-选修11</t>
+  </si>
+  <si>
+    <t>人教版高中英语-选修 11</t>
+  </si>
+  <si>
+    <t>PEPGaoZhong_11</t>
+  </si>
+  <si>
+    <t>初中英语词汇（正序版）</t>
+  </si>
+  <si>
+    <t>ChuZhong_2</t>
+  </si>
+  <si>
+    <t>高中英语词汇（正序版）</t>
+  </si>
+  <si>
+    <t>GaoZhong_2</t>
+  </si>
+  <si>
+    <t>商务英语词汇</t>
+  </si>
+  <si>
+    <t>BEC_2</t>
+  </si>
+  <si>
+    <t>BEC</t>
+  </si>
+  <si>
+    <t>新东方BEC词汇</t>
+  </si>
+  <si>
+    <t>新东方 BEC 词汇</t>
+  </si>
+  <si>
+    <t>BEC_3</t>
+  </si>
+  <si>
+    <t>新东方、BEC</t>
+  </si>
+  <si>
+    <t>北师大版高中必修一</t>
+  </si>
+  <si>
+    <t>BeiShiGaoZhong_1</t>
+  </si>
+  <si>
+    <t>北师版</t>
+  </si>
+  <si>
+    <t>北师大版高中必修二</t>
+  </si>
+  <si>
+    <t>BeiShiGaoZhong_2</t>
+  </si>
+  <si>
+    <t>北师大版高中必修三</t>
+  </si>
+  <si>
+    <t>BeiShiGaoZhong_3</t>
+  </si>
+  <si>
+    <t>北师大版高中必修四</t>
+  </si>
+  <si>
+    <t>BeiShiGaoZhong_4</t>
+  </si>
+  <si>
+    <t>北师大版高中必修五</t>
+  </si>
+  <si>
+    <t>BeiShiGaoZhong_5</t>
+  </si>
+  <si>
+    <t>北师大版高中选修六</t>
+  </si>
+  <si>
+    <t>BeiShiGaoZhong_6</t>
+  </si>
+  <si>
+    <t>北师大版高中选修七</t>
+  </si>
+  <si>
+    <t>BeiShiGaoZhong_7</t>
+  </si>
+  <si>
+    <t>北师大版高中选修八</t>
+  </si>
+  <si>
+    <t>BeiShiGaoZhong_8</t>
+  </si>
+  <si>
+    <t>北师大版高中选修九</t>
+  </si>
+  <si>
+    <t>BeiShiGaoZhong_9</t>
+  </si>
+  <si>
+    <t>北师大版高中选修十</t>
+  </si>
+  <si>
+    <t>BeiShiGaoZhong_10</t>
+  </si>
+  <si>
+    <t>北师大版高中选修十一</t>
+  </si>
+  <si>
+    <t>BeiShiGaoZhong_11</t>
+  </si>
+  <si>
+    <t>TOEFL 词汇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>CET6luan_1</t>
-  </si>
-  <si>
-    <t>六级、有道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>六级真题核心词（图片记忆）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KaoYanluan_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>考研必考词汇</t>
-  </si>
-  <si>
-    <t>KaoYanluan_1</t>
-  </si>
-  <si>
-    <t>考研、有道</t>
-  </si>
-  <si>
-    <t>专四真题高频词</t>
-  </si>
-  <si>
-    <t>Level4luan_1</t>
-  </si>
-  <si>
-    <t>专四、有道</t>
-  </si>
-  <si>
-    <t>专八真题高频词</t>
-  </si>
-  <si>
-    <t>Level8_1</t>
-  </si>
-  <si>
-    <t>专八、有道</t>
-  </si>
-  <si>
-    <t>四级英语词汇</t>
-  </si>
-  <si>
-    <t>CET4luan_2</t>
-  </si>
-  <si>
-    <t>六级英语词汇</t>
-  </si>
-  <si>
-    <t>CET6_2</t>
-  </si>
-  <si>
-    <t>考研英语词汇</t>
-  </si>
-  <si>
-    <t>KaoYan_2</t>
-  </si>
-  <si>
-    <t>专四核心词汇</t>
-  </si>
-  <si>
-    <t>Level4luan_2</t>
-  </si>
-  <si>
-    <t>专八核心词汇</t>
-  </si>
-  <si>
-    <t>Level8luan_2</t>
-  </si>
-  <si>
-    <t>新东方四级词汇</t>
-  </si>
-  <si>
-    <t>CET4_3</t>
-  </si>
-  <si>
-    <t>四级、新东方</t>
-  </si>
-  <si>
-    <t>新东方六级词汇</t>
-  </si>
-  <si>
-    <t>CET6_3</t>
-  </si>
-  <si>
-    <t>六级、新东方</t>
-  </si>
-  <si>
-    <t>新东方考研词汇</t>
-  </si>
-  <si>
-    <t>KaoYan_3</t>
-  </si>
-  <si>
-    <t>考研、新东方</t>
-  </si>
-  <si>
-    <t>四级真题核心词（正序版）</t>
-  </si>
-  <si>
-    <t>CET4_1</t>
-  </si>
-  <si>
-    <t>有道</t>
-  </si>
-  <si>
-    <t>六级真题核心词（正序版）</t>
-  </si>
-  <si>
-    <t>CET6_1</t>
-  </si>
-  <si>
-    <t>考研必考词汇（正序版）</t>
-  </si>
-  <si>
-    <t>KaoYan_1</t>
-  </si>
-  <si>
-    <t>专四真题高频词（正序版）</t>
-  </si>
-  <si>
-    <t>Level4_1</t>
-  </si>
-  <si>
-    <t>四级英语词汇（正序版）</t>
-  </si>
-  <si>
-    <t>CET4_2</t>
-  </si>
-  <si>
-    <t>专四核心词汇（正序版）</t>
-  </si>
-  <si>
-    <t>Level4_2</t>
-  </si>
-  <si>
-    <t>专八核心词汇（正序版）</t>
-  </si>
-  <si>
-    <t>Level8_2</t>
-  </si>
-  <si>
-    <t>雅思词汇</t>
-  </si>
-  <si>
-    <t>IELTSluan_2</t>
-  </si>
-  <si>
-    <t>IELTS、有道</t>
-  </si>
-  <si>
-    <t>TOEFL词汇</t>
-  </si>
-  <si>
-    <t>TOEFL_2</t>
-  </si>
-  <si>
-    <t>TOEFL、有道</t>
-  </si>
-  <si>
-    <t>GRE词汇</t>
-  </si>
-  <si>
-    <t>GRE 词汇</t>
-  </si>
-  <si>
-    <t>GRE_2</t>
-  </si>
-  <si>
-    <t>GRE、有道</t>
-  </si>
-  <si>
-    <t>SAT词汇</t>
-  </si>
-  <si>
-    <t>SAT 词汇</t>
-  </si>
-  <si>
-    <t>SAT_2</t>
-  </si>
-  <si>
-    <t>SAT、有道</t>
-  </si>
-  <si>
-    <t>GMAT词汇</t>
-  </si>
-  <si>
-    <t>GMAT 词汇</t>
-  </si>
-  <si>
-    <t>GMATluan_2</t>
-  </si>
-  <si>
-    <t>GMAT、有道</t>
-  </si>
-  <si>
-    <t>新东方雅思词汇</t>
-  </si>
-  <si>
-    <t>IELTS_3</t>
-  </si>
-  <si>
-    <t>IELTS、新东方</t>
-  </si>
-  <si>
-    <t>新东方TOEFL词汇</t>
-  </si>
-  <si>
-    <t>新东方 TOEFL 词汇</t>
-  </si>
-  <si>
-    <t>TOEFL_3</t>
-  </si>
-  <si>
-    <t>TOEFL、新东方</t>
-  </si>
-  <si>
-    <t>新东方GRE词汇</t>
-  </si>
-  <si>
-    <t>新东方 GRE 词汇</t>
-  </si>
-  <si>
-    <t>GRE_3</t>
-  </si>
-  <si>
-    <t>GRE、新东方</t>
-  </si>
-  <si>
-    <t>新东方SAT词汇</t>
-  </si>
-  <si>
-    <t>新东方 SAT 词汇</t>
-  </si>
-  <si>
-    <t>SAT_3</t>
-  </si>
-  <si>
-    <t>SAT、新东方</t>
-  </si>
-  <si>
-    <t>新东方GMAT词汇</t>
-  </si>
-  <si>
-    <t>新东方 GMAT 词汇</t>
-  </si>
-  <si>
-    <t>GMAT_3</t>
-  </si>
-  <si>
-    <t>GMAT、新东方</t>
-  </si>
-  <si>
-    <t>雅思词汇（正序版）</t>
-  </si>
-  <si>
-    <t>IELTS_2</t>
-  </si>
-  <si>
-    <t>GMAT词汇（正序版）</t>
-  </si>
-  <si>
-    <t>GMAT 词汇（正序版）</t>
-  </si>
-  <si>
-    <t>GMAT_2</t>
-  </si>
-  <si>
-    <t>中考必备词汇</t>
-  </si>
-  <si>
-    <t>ChuZhongluan_2</t>
-  </si>
-  <si>
-    <t>高考必备词汇（图片记忆）</t>
-  </si>
-  <si>
-    <t>GaoZhongluan_2</t>
-  </si>
-  <si>
-    <t>新东方初中词汇</t>
-  </si>
-  <si>
-    <t>ChuZhong_3</t>
-  </si>
-  <si>
-    <t>新东方</t>
-  </si>
-  <si>
-    <t>新东方高中词汇</t>
-  </si>
-  <si>
-    <t>GaoZhong_3</t>
-  </si>
-  <si>
-    <t>人教版小学英语-三年级上册</t>
-  </si>
-  <si>
-    <t>PEPXiaoXue3_1</t>
-  </si>
-  <si>
-    <t>人教版</t>
-  </si>
-  <si>
-    <t>人教版小学英语-三年级下册</t>
-  </si>
-  <si>
-    <t>PEPXiaoXue3_2</t>
-  </si>
-  <si>
-    <t>人教版小学英语-四年级上册</t>
-  </si>
-  <si>
-    <t>PEPXiaoXue4_1</t>
-  </si>
-  <si>
-    <t>人教版小学英语-四年级下册</t>
-  </si>
-  <si>
-    <t>PEPXiaoXue4_2</t>
-  </si>
-  <si>
-    <t>人教版小学英语-五年级上册</t>
-  </si>
-  <si>
-    <t>PEPXiaoXue5_1</t>
-  </si>
-  <si>
-    <t>人教版小学英语-五年级下册</t>
-  </si>
-  <si>
-    <t>PEPXiaoXue5_2</t>
-  </si>
-  <si>
-    <t>人教版小学英语-六年级上册</t>
-  </si>
-  <si>
-    <t>PEPXiaoXue6_1</t>
-  </si>
-  <si>
-    <t>人教版小学英语-六年级下册</t>
-  </si>
-  <si>
-    <t>PEPXiaoXue6_2</t>
-  </si>
-  <si>
-    <t>人教版初中英语-七年级上册</t>
-  </si>
-  <si>
-    <t>PEPChuZhong7_1</t>
-  </si>
-  <si>
-    <t>人教版初中英语-七年级下册</t>
-  </si>
-  <si>
-    <t>PEPChuZhong7_2</t>
-  </si>
-  <si>
-    <t>人教版初中英语-八年级上册</t>
-  </si>
-  <si>
-    <t>PEPChuZhong8_1</t>
-  </si>
-  <si>
-    <t>人教版初中英语-八年级下册</t>
-  </si>
-  <si>
-    <t>PEPChuZhong8_2</t>
-  </si>
-  <si>
-    <t>人教版初中英语-九年级全册</t>
-  </si>
-  <si>
-    <t>PEPChuZhong9_1</t>
-  </si>
-  <si>
-    <t>外研社版初中英语-七年级上册</t>
-  </si>
-  <si>
-    <t>WaiYanSheChuZhong_1</t>
-  </si>
-  <si>
-    <t>外研社版</t>
-  </si>
-  <si>
-    <t>外研社版初中英语-七年级下册</t>
-  </si>
-  <si>
-    <t>WaiYanSheChuZhong_2</t>
-  </si>
-  <si>
-    <t>外研社版初中英语-八年级上册</t>
-  </si>
-  <si>
-    <t>WaiYanSheChuZhong_3</t>
-  </si>
-  <si>
-    <t>外研社版初中英语-八年级下册</t>
-  </si>
-  <si>
-    <t>WaiYanSheChuZhong_4</t>
-  </si>
-  <si>
-    <t>外研社版初中英语-九年级上册</t>
-  </si>
-  <si>
-    <t>WaiYanSheChuZhong_5</t>
-  </si>
-  <si>
-    <t>外研社版初中英语-九年级下册</t>
-  </si>
-  <si>
-    <t>WaiYanSheChuZhong_6</t>
-  </si>
-  <si>
-    <t>人教版高中英语-必修1</t>
-  </si>
-  <si>
-    <t>人教版高中英语-必修 1</t>
-  </si>
-  <si>
-    <t>PEPGaoZhong_1</t>
-  </si>
-  <si>
-    <t>人教版高中英语-必修2</t>
-  </si>
-  <si>
-    <t>人教版高中英语-必修 2</t>
-  </si>
-  <si>
-    <t>PEPGaoZhong_2</t>
-  </si>
-  <si>
-    <t>人教版高中英语-必修3</t>
-  </si>
-  <si>
-    <t>人教版高中英语-必修 3</t>
-  </si>
-  <si>
-    <t>PEPGaoZhong_3</t>
-  </si>
-  <si>
-    <t>人教版高中英语-必修4</t>
-  </si>
-  <si>
-    <t>人教版高中英语-必修 4</t>
-  </si>
-  <si>
-    <t>PEPGaoZhong_4</t>
-  </si>
-  <si>
-    <t>人教版高中英语-必修5</t>
-  </si>
-  <si>
-    <t>人教版高中英语-必修 5</t>
-  </si>
-  <si>
-    <t>PEPGaoZhong_5</t>
-  </si>
-  <si>
-    <t>人教版高中英语-选修6</t>
-  </si>
-  <si>
-    <t>人教版高中英语-选修 6</t>
-  </si>
-  <si>
-    <t>PEPGaoZhong_6</t>
-  </si>
-  <si>
-    <t>人教版高中英语-选修7</t>
-  </si>
-  <si>
-    <t>人教版高中英语-选修 7</t>
-  </si>
-  <si>
-    <t>PEPGaoZhong_7</t>
-  </si>
-  <si>
-    <t>人教版高中英语-选修8</t>
-  </si>
-  <si>
-    <t>人教版高中英语-选修 8</t>
-  </si>
-  <si>
-    <t>PEPGaoZhong_8</t>
-  </si>
-  <si>
-    <t>人教版高中英语-选修9</t>
-  </si>
-  <si>
-    <t>人教版高中英语-选修 9</t>
-  </si>
-  <si>
-    <t>PEPGaoZhong_9</t>
-  </si>
-  <si>
-    <t>人教版高中英语-选修10</t>
-  </si>
-  <si>
-    <t>人教版高中英语-选修 10</t>
-  </si>
-  <si>
-    <t>PEPGaoZhong_10</t>
-  </si>
-  <si>
-    <t>人教版高中英语-选修11</t>
-  </si>
-  <si>
-    <t>人教版高中英语-选修 11</t>
-  </si>
-  <si>
-    <t>PEPGaoZhong_11</t>
-  </si>
-  <si>
-    <t>初中英语词汇（正序版）</t>
-  </si>
-  <si>
-    <t>ChuZhong_2</t>
-  </si>
-  <si>
-    <t>高中英语词汇（正序版）</t>
-  </si>
-  <si>
-    <t>GaoZhong_2</t>
-  </si>
-  <si>
-    <t>商务英语词汇</t>
-  </si>
-  <si>
-    <t>BEC_2</t>
-  </si>
-  <si>
-    <t>BEC</t>
-  </si>
-  <si>
-    <t>新东方BEC词汇</t>
-  </si>
-  <si>
-    <t>新东方 BEC 词汇</t>
-  </si>
-  <si>
-    <t>BEC_3</t>
-  </si>
-  <si>
-    <t>新东方、BEC</t>
-  </si>
-  <si>
-    <t>北师大版高中必修一</t>
-  </si>
-  <si>
-    <t>BeiShiGaoZhong_1</t>
-  </si>
-  <si>
-    <t>北师版</t>
-  </si>
-  <si>
-    <t>北师大版高中必修二</t>
-  </si>
-  <si>
-    <t>BeiShiGaoZhong_2</t>
-  </si>
-  <si>
-    <t>北师大版高中必修三</t>
-  </si>
-  <si>
-    <t>BeiShiGaoZhong_3</t>
-  </si>
-  <si>
-    <t>北师大版高中必修四</t>
-  </si>
-  <si>
-    <t>BeiShiGaoZhong_4</t>
-  </si>
-  <si>
-    <t>北师大版高中必修五</t>
-  </si>
-  <si>
-    <t>BeiShiGaoZhong_5</t>
-  </si>
-  <si>
-    <t>北师大版高中选修六</t>
-  </si>
-  <si>
-    <t>BeiShiGaoZhong_6</t>
-  </si>
-  <si>
-    <t>北师大版高中选修七</t>
-  </si>
-  <si>
-    <t>BeiShiGaoZhong_7</t>
-  </si>
-  <si>
-    <t>北师大版高中选修八</t>
-  </si>
-  <si>
-    <t>BeiShiGaoZhong_8</t>
-  </si>
-  <si>
-    <t>北师大版高中选修九</t>
-  </si>
-  <si>
-    <t>BeiShiGaoZhong_9</t>
-  </si>
-  <si>
-    <t>北师大版高中选修十</t>
-  </si>
-  <si>
-    <t>BeiShiGaoZhong_10</t>
-  </si>
-  <si>
-    <t>北师大版高中选修十一</t>
-  </si>
-  <si>
-    <t>BeiShiGaoZhong_11</t>
-  </si>
-  <si>
-    <t>TOEFL 词汇</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1015,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:XFD36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1079,56 +1089,56 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>1228</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>591417</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>218418</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H3" t="s">
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D4" s="1">
+        <v>1341</v>
+      </c>
+      <c r="E4" s="1">
+        <v>771889</v>
+      </c>
+      <c r="F4" s="1">
+        <v>252505</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4">
-        <v>1341</v>
-      </c>
-      <c r="E4">
-        <v>771889</v>
-      </c>
-      <c r="F4">
-        <v>252505</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1136,10 +1146,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>595</v>
@@ -1151,10 +1161,10 @@
         <v>62169</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1162,10 +1172,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6">
         <v>684</v>
@@ -1177,10 +1187,10 @@
         <v>30059</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1188,10 +1198,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>3739</v>
@@ -1203,7 +1213,7 @@
         <v>215979</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
         <v>10</v>
@@ -1214,10 +1224,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8">
         <v>2078</v>
@@ -1229,10 +1239,10 @@
         <v>64093</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1240,10 +1250,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9">
         <v>4533</v>
@@ -1255,10 +1265,10 @@
         <v>147205</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1266,10 +1276,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10">
         <v>4025</v>
@@ -1281,10 +1291,10 @@
         <v>18858</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1292,10 +1302,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11">
         <v>12197</v>
@@ -1307,10 +1317,10 @@
         <v>23123</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1318,10 +1328,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12">
         <v>2607</v>
@@ -1333,10 +1343,10 @@
         <v>3063</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1344,10 +1354,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13">
         <v>2345</v>
@@ -1359,10 +1369,10 @@
         <v>1193</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1370,10 +1380,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D14">
         <v>3728</v>
@@ -1385,10 +1395,10 @@
         <v>2644</v>
       </c>
       <c r="G14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1396,10 +1406,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D15">
         <v>1162</v>
@@ -1411,10 +1421,10 @@
         <v>6324</v>
       </c>
       <c r="G15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1422,10 +1432,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D16">
         <v>1228</v>
@@ -1437,10 +1447,10 @@
         <v>3888</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1448,10 +1458,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D17">
         <v>1341</v>
@@ -1463,10 +1473,10 @@
         <v>7621</v>
       </c>
       <c r="G17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1474,10 +1484,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D18">
         <v>595</v>
@@ -1489,10 +1499,10 @@
         <v>2698</v>
       </c>
       <c r="G18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1500,10 +1510,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D19">
         <v>3739</v>
@@ -1515,7 +1525,7 @@
         <v>11803</v>
       </c>
       <c r="G19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H19" t="s">
         <v>10</v>
@@ -1526,10 +1536,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D20">
         <v>4025</v>
@@ -1541,10 +1551,10 @@
         <v>4700</v>
       </c>
       <c r="G20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1552,10 +1562,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D21">
         <v>12197</v>
@@ -1567,10 +1577,10 @@
         <v>8040</v>
       </c>
       <c r="G21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1578,10 +1588,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D22" s="1">
         <v>3427</v>
@@ -1593,10 +1603,10 @@
         <v>276495</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1604,10 +1614,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D23" s="1">
         <v>9213</v>
@@ -1619,10 +1629,10 @@
         <v>118896</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1630,10 +1640,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D24">
         <v>7199</v>
@@ -1645,10 +1655,10 @@
         <v>47072</v>
       </c>
       <c r="G24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1656,10 +1666,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D25">
         <v>4423</v>
@@ -1671,10 +1681,10 @@
         <v>13876</v>
       </c>
       <c r="G25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1682,10 +1692,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D26">
         <v>3254</v>
@@ -1697,10 +1707,10 @@
         <v>14874</v>
       </c>
       <c r="G26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1708,10 +1718,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D27">
         <v>3575</v>
@@ -1723,10 +1733,10 @@
         <v>1707</v>
       </c>
       <c r="G27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1734,10 +1744,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D28">
         <v>4264</v>
@@ -1749,10 +1759,10 @@
         <v>1294</v>
       </c>
       <c r="G28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1760,10 +1770,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D29">
         <v>6515</v>
@@ -1775,10 +1785,10 @@
         <v>673</v>
       </c>
       <c r="G29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -1786,10 +1796,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D30">
         <v>4464</v>
@@ -1801,10 +1811,10 @@
         <v>292</v>
       </c>
       <c r="G30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -1812,10 +1822,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D31">
         <v>3047</v>
@@ -1827,10 +1837,10 @@
         <v>333</v>
       </c>
       <c r="G31" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -1838,10 +1848,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D32">
         <v>3427</v>
@@ -1853,10 +1863,10 @@
         <v>6286</v>
       </c>
       <c r="G32" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -1864,10 +1874,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D33">
         <v>3254</v>
@@ -1879,10 +1889,10 @@
         <v>2064</v>
       </c>
       <c r="G33" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -1890,10 +1900,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C34" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D34">
         <v>1420</v>
@@ -1905,10 +1915,10 @@
         <v>273321</v>
       </c>
       <c r="G34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -1916,10 +1926,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D35">
         <v>3668</v>
@@ -1931,10 +1941,10 @@
         <v>256873</v>
       </c>
       <c r="G35" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1942,10 +1952,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D36" s="1">
         <v>1803</v>
@@ -1957,10 +1967,10 @@
         <v>5117</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -1968,10 +1978,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C37" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D37">
         <v>2340</v>
@@ -1983,10 +1993,10 @@
         <v>2619</v>
       </c>
       <c r="G37" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H37" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -1994,10 +2004,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D38">
         <v>64</v>
@@ -2009,10 +2019,10 @@
         <v>378234</v>
       </c>
       <c r="G38" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H38" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -2020,10 +2030,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C39" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D39">
         <v>72</v>
@@ -2035,10 +2045,10 @@
         <v>103262</v>
       </c>
       <c r="G39" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H39" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -2046,10 +2056,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C40" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D40">
         <v>84</v>
@@ -2061,10 +2071,10 @@
         <v>89159</v>
       </c>
       <c r="G40" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H40" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -2072,10 +2082,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C41" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D41">
         <v>104</v>
@@ -2087,10 +2097,10 @@
         <v>50627</v>
       </c>
       <c r="G41" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H41" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -2098,10 +2108,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C42" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D42">
         <v>131</v>
@@ -2113,10 +2123,10 @@
         <v>65368</v>
       </c>
       <c r="G42" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H42" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -2124,10 +2134,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C43" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D43">
         <v>156</v>
@@ -2139,10 +2149,10 @@
         <v>37829</v>
       </c>
       <c r="G43" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H43" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -2150,10 +2160,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D44">
         <v>130</v>
@@ -2165,10 +2175,10 @@
         <v>69570</v>
       </c>
       <c r="G44" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H44" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -2176,10 +2186,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C45" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D45">
         <v>108</v>
@@ -2191,10 +2201,10 @@
         <v>38501</v>
       </c>
       <c r="G45" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H45" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -2202,10 +2212,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C46" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D46">
         <v>392</v>
@@ -2217,10 +2227,10 @@
         <v>126509</v>
       </c>
       <c r="G46" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H46" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -2228,10 +2238,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C47" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D47">
         <v>492</v>
@@ -2243,10 +2253,10 @@
         <v>40795</v>
       </c>
       <c r="G47" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H47" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -2254,10 +2264,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C48" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D48">
         <v>419</v>
@@ -2269,10 +2279,10 @@
         <v>69006</v>
       </c>
       <c r="G48" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H48" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -2280,10 +2290,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C49" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D49">
         <v>466</v>
@@ -2295,10 +2305,10 @@
         <v>31355</v>
       </c>
       <c r="G49" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H49" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -2306,10 +2316,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C50" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D50">
         <v>551</v>
@@ -2321,10 +2331,10 @@
         <v>69649</v>
       </c>
       <c r="G50" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H50" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -2332,10 +2342,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C51" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D51">
         <v>629</v>
@@ -2347,10 +2357,10 @@
         <v>1031</v>
       </c>
       <c r="G51" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H51" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -2358,10 +2368,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C52" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D52">
         <v>438</v>
@@ -2373,10 +2383,10 @@
         <v>693</v>
       </c>
       <c r="G52" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H52" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -2384,10 +2394,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C53" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D53">
         <v>320</v>
@@ -2399,10 +2409,10 @@
         <v>552</v>
       </c>
       <c r="G53" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H53" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -2410,10 +2420,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C54" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D54">
         <v>266</v>
@@ -2425,10 +2435,10 @@
         <v>629</v>
       </c>
       <c r="G54" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H54" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -2436,10 +2446,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C55" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D55">
         <v>381</v>
@@ -2451,10 +2461,10 @@
         <v>462</v>
       </c>
       <c r="G55" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H55" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -2462,10 +2472,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C56" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D56">
         <v>128</v>
@@ -2477,10 +2487,10 @@
         <v>495</v>
       </c>
       <c r="G56" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H56" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -2488,10 +2498,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C57" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D57">
         <v>311</v>
@@ -2503,10 +2513,10 @@
         <v>114721</v>
       </c>
       <c r="G57" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H57" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -2514,10 +2524,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C58" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D58">
         <v>319</v>
@@ -2529,10 +2539,10 @@
         <v>24566</v>
       </c>
       <c r="G58" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H58" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -2540,10 +2550,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C59" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D59">
         <v>366</v>
@@ -2555,10 +2565,10 @@
         <v>47142</v>
       </c>
       <c r="G59" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H59" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -2566,10 +2576,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C60" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D60">
         <v>307</v>
@@ -2581,10 +2591,10 @@
         <v>16866</v>
       </c>
       <c r="G60" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H60" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -2592,10 +2602,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C61" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D61">
         <v>357</v>
@@ -2607,10 +2617,10 @@
         <v>24188</v>
       </c>
       <c r="G61" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H61" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -2618,10 +2628,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C62" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D62">
         <v>391</v>
@@ -2633,10 +2643,10 @@
         <v>12203</v>
       </c>
       <c r="G62" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H62" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -2644,10 +2654,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C63" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D63">
         <v>384</v>
@@ -2659,10 +2669,10 @@
         <v>8576</v>
       </c>
       <c r="G63" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H63" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -2670,10 +2680,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C64" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D64">
         <v>420</v>
@@ -2685,10 +2695,10 @@
         <v>7481</v>
       </c>
       <c r="G64" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H64" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -2696,10 +2706,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C65" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D65">
         <v>352</v>
@@ -2711,10 +2721,10 @@
         <v>3759</v>
       </c>
       <c r="G65" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H65" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -2722,10 +2732,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C66" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D66">
         <v>361</v>
@@ -2737,10 +2747,10 @@
         <v>3470</v>
       </c>
       <c r="G66" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H66" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -2748,10 +2758,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C67" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D67">
         <v>309</v>
@@ -2763,10 +2773,10 @@
         <v>4450</v>
       </c>
       <c r="G67" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H67" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2774,10 +2784,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D68" s="2">
         <v>1420</v>
@@ -2789,10 +2799,10 @@
         <v>82677</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
@@ -2800,10 +2810,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C69" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D69">
         <v>3668</v>
@@ -2815,10 +2825,10 @@
         <v>172704</v>
       </c>
       <c r="G69" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H69" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2826,10 +2836,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D70" s="1">
         <v>2753</v>
@@ -2841,10 +2851,10 @@
         <v>300528</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
@@ -2852,10 +2862,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C71" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D71">
         <v>2825</v>
@@ -2867,10 +2877,10 @@
         <v>4659</v>
       </c>
       <c r="G71" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H71" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
@@ -2878,10 +2888,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C72" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D72">
         <v>226</v>
@@ -2893,10 +2903,10 @@
         <v>5571</v>
       </c>
       <c r="G72" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H72" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
@@ -2904,10 +2914,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C73" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D73">
         <v>244</v>
@@ -2919,10 +2929,10 @@
         <v>1822</v>
       </c>
       <c r="G73" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H73" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -2930,10 +2940,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C74" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D74">
         <v>295</v>
@@ -2945,10 +2955,10 @@
         <v>1437</v>
       </c>
       <c r="G74" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H74" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
@@ -2956,10 +2966,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C75" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D75">
         <v>336</v>
@@ -2971,10 +2981,10 @@
         <v>1294</v>
       </c>
       <c r="G75" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H75" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
@@ -2982,10 +2992,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C76" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D76">
         <v>327</v>
@@ -2997,10 +3007,10 @@
         <v>1515</v>
       </c>
       <c r="G76" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H76" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
@@ -3008,10 +3018,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C77" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D77">
         <v>271</v>
@@ -3023,10 +3033,10 @@
         <v>1071</v>
       </c>
       <c r="G77" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H77" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
@@ -3034,10 +3044,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C78" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D78">
         <v>334</v>
@@ -3049,10 +3059,10 @@
         <v>880</v>
       </c>
       <c r="G78" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H78" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
@@ -3060,10 +3070,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C79" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D79">
         <v>364</v>
@@ -3075,10 +3085,10 @@
         <v>796</v>
       </c>
       <c r="G79" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H79" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
@@ -3086,10 +3096,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C80" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D80">
         <v>299</v>
@@ -3101,10 +3111,10 @@
         <v>493</v>
       </c>
       <c r="G80" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H80" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -3112,10 +3122,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C81" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D81">
         <v>267</v>
@@ -3127,10 +3137,10 @@
         <v>485</v>
       </c>
       <c r="G81" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H81" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -3138,10 +3148,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C82" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D82">
         <v>330</v>
@@ -3153,10 +3163,10 @@
         <v>739</v>
       </c>
       <c r="G82" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H82" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/词汇目录.xlsx
+++ b/词汇目录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dict\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3E12F2-A4CF-4C2B-A069-DE493D421BC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F26C90-B3D1-48D1-8E59-D3DFF590382D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="219">
   <si>
     <t>序号</t>
   </si>
@@ -683,6 +683,10 @@
   </si>
   <si>
     <t>考研必考词汇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高考必备词汇（图片记忆）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1025,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1921,29 +1925,29 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35">
+    <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C35" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35">
+      <c r="D35" s="1">
         <v>3668</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="1">
         <v>2120036</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="1">
         <v>256873</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="1" t="s">
         <v>42</v>
       </c>
     </row>

--- a/词汇目录.xlsx
+++ b/词汇目录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dict\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F26C90-B3D1-48D1-8E59-D3DFF590382D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2398EB8-6B06-4E91-AFFB-2382D54588D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="223">
   <si>
     <t>序号</t>
   </si>
@@ -399,31 +399,16 @@
     <t>人教版初中英语-七年级上册</t>
   </si>
   <si>
-    <t>PEPChuZhong7_1</t>
-  </si>
-  <si>
     <t>人教版初中英语-七年级下册</t>
   </si>
   <si>
-    <t>PEPChuZhong7_2</t>
-  </si>
-  <si>
     <t>人教版初中英语-八年级上册</t>
   </si>
   <si>
-    <t>PEPChuZhong8_1</t>
-  </si>
-  <si>
     <t>人教版初中英语-八年级下册</t>
   </si>
   <si>
-    <t>PEPChuZhong8_2</t>
-  </si>
-  <si>
     <t>人教版初中英语-九年级全册</t>
-  </si>
-  <si>
-    <t>PEPChuZhong9_1</t>
   </si>
   <si>
     <t>外研社版初中英语-七年级上册</t>
@@ -687,6 +672,42 @@
   </si>
   <si>
     <t>高考必备词汇（图片记忆）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PEPChuZhong7_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人教版初中英语-七年级上册</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PEPChuZhong7_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PEPChuZhong8_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人教版初中英语-八年级上册</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PEPChuZhong8_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人教版初中英语-八年级下册</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PEPChuZhong9_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人教版初中英语-九年级全册</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1027,10 +1048,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1098,7 +1119,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
@@ -1113,7 +1134,7 @@
         <v>218418</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>12</v>
@@ -1124,7 +1145,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
@@ -1139,7 +1160,7 @@
         <v>252505</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>14</v>
@@ -1621,7 +1642,7 @@
         <v>58</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D23" s="1">
         <v>9213</v>
@@ -1930,7 +1951,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>99</v>
@@ -2211,365 +2232,313 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46">
+    <row r="47" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C46" t="s">
-        <v>123</v>
-      </c>
-      <c r="D46">
+      <c r="D47" s="1">
         <v>392</v>
       </c>
-      <c r="E46">
+      <c r="E47" s="1">
         <v>203341</v>
       </c>
-      <c r="F46">
+      <c r="F47" s="1">
         <v>126509</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G47" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H46" t="s">
+      <c r="C48" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D48" s="1">
+        <v>492</v>
+      </c>
+      <c r="E48" s="1">
+        <v>266712</v>
+      </c>
+      <c r="F48" s="1">
+        <v>40795</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
+    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C47" t="s">
-        <v>125</v>
-      </c>
-      <c r="D47">
-        <v>492</v>
-      </c>
-      <c r="E47">
-        <v>266712</v>
-      </c>
-      <c r="F47">
-        <v>40795</v>
-      </c>
-      <c r="G47" t="s">
+      <c r="D49" s="1">
+        <v>419</v>
+      </c>
+      <c r="E49" s="1">
+        <v>222704</v>
+      </c>
+      <c r="F49" s="1">
+        <v>69006</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H47" t="s">
+      <c r="D50" s="1">
+        <v>466</v>
+      </c>
+      <c r="E50" s="1">
+        <v>244325</v>
+      </c>
+      <c r="F50" s="1">
+        <v>31355</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
+    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C48" t="s">
-        <v>127</v>
-      </c>
-      <c r="D48">
-        <v>419</v>
-      </c>
-      <c r="E48">
-        <v>222704</v>
-      </c>
-      <c r="F48">
-        <v>69006</v>
-      </c>
-      <c r="G48" t="s">
-        <v>128</v>
-      </c>
-      <c r="H48" t="s">
+      <c r="D51" s="1">
+        <v>551</v>
+      </c>
+      <c r="E51" s="1">
+        <v>278981</v>
+      </c>
+      <c r="F51" s="1">
+        <v>69649</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>129</v>
-      </c>
-      <c r="C49" t="s">
-        <v>129</v>
-      </c>
-      <c r="D49">
-        <v>466</v>
-      </c>
-      <c r="E49">
-        <v>244325</v>
-      </c>
-      <c r="F49">
-        <v>31355</v>
-      </c>
-      <c r="G49" t="s">
-        <v>130</v>
-      </c>
-      <c r="H49" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>131</v>
-      </c>
-      <c r="C50" t="s">
-        <v>131</v>
-      </c>
-      <c r="D50">
-        <v>551</v>
-      </c>
-      <c r="E50">
-        <v>278981</v>
-      </c>
-      <c r="F50">
-        <v>69649</v>
-      </c>
-      <c r="G50" t="s">
-        <v>132</v>
-      </c>
-      <c r="H50" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>133</v>
-      </c>
-      <c r="C51" t="s">
-        <v>133</v>
-      </c>
-      <c r="D51">
-        <v>629</v>
-      </c>
-      <c r="E51">
-        <v>351737</v>
-      </c>
-      <c r="F51">
-        <v>1031</v>
-      </c>
-      <c r="G51" t="s">
-        <v>134</v>
-      </c>
-      <c r="H51" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>136</v>
-      </c>
-      <c r="C52" t="s">
-        <v>136</v>
-      </c>
-      <c r="D52">
-        <v>438</v>
-      </c>
-      <c r="E52">
-        <v>247606</v>
-      </c>
-      <c r="F52">
-        <v>693</v>
-      </c>
-      <c r="G52" t="s">
-        <v>137</v>
-      </c>
-      <c r="H52" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C53" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D53">
-        <v>320</v>
+        <v>629</v>
       </c>
       <c r="E53">
-        <v>184306</v>
+        <v>351737</v>
       </c>
       <c r="F53">
-        <v>552</v>
+        <v>1031</v>
       </c>
       <c r="G53" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="H53" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C54" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D54">
-        <v>266</v>
+        <v>438</v>
       </c>
       <c r="E54">
-        <v>147166</v>
+        <v>247606</v>
       </c>
       <c r="F54">
-        <v>629</v>
+        <v>693</v>
       </c>
       <c r="G54" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="H54" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C55" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D55">
-        <v>381</v>
+        <v>320</v>
       </c>
       <c r="E55">
-        <v>196315</v>
+        <v>184306</v>
       </c>
       <c r="F55">
-        <v>462</v>
+        <v>552</v>
       </c>
       <c r="G55" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="H55" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C56" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D56">
-        <v>128</v>
+        <v>266</v>
       </c>
       <c r="E56">
-        <v>72801</v>
+        <v>147166</v>
       </c>
       <c r="F56">
-        <v>495</v>
+        <v>629</v>
       </c>
       <c r="G56" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="H56" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C57" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D57">
-        <v>311</v>
+        <v>381</v>
       </c>
       <c r="E57">
-        <v>145874</v>
+        <v>196315</v>
       </c>
       <c r="F57">
-        <v>114721</v>
+        <v>462</v>
       </c>
       <c r="G57" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="H57" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C58" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D58">
-        <v>319</v>
+        <v>128</v>
       </c>
       <c r="E58">
-        <v>148700</v>
+        <v>72801</v>
       </c>
       <c r="F58">
-        <v>24566</v>
+        <v>495</v>
       </c>
       <c r="G58" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="H58" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C59" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="D59">
-        <v>366</v>
+        <v>311</v>
       </c>
       <c r="E59">
-        <v>162383</v>
+        <v>145874</v>
       </c>
       <c r="F59">
-        <v>47142</v>
+        <v>114721</v>
       </c>
       <c r="G59" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="H59" t="s">
         <v>108</v>
@@ -2577,25 +2546,25 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C60" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D60">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="E60">
-        <v>129777</v>
+        <v>148700</v>
       </c>
       <c r="F60">
-        <v>16866</v>
+        <v>24566</v>
       </c>
       <c r="G60" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="H60" t="s">
         <v>108</v>
@@ -2603,25 +2572,25 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C61" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D61">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="E61">
-        <v>162923</v>
+        <v>162383</v>
       </c>
       <c r="F61">
-        <v>24188</v>
+        <v>47142</v>
       </c>
       <c r="G61" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="H61" t="s">
         <v>108</v>
@@ -2629,25 +2598,25 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C62" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="D62">
-        <v>391</v>
+        <v>307</v>
       </c>
       <c r="E62">
-        <v>172125</v>
+        <v>129777</v>
       </c>
       <c r="F62">
-        <v>12203</v>
+        <v>16866</v>
       </c>
       <c r="G62" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="H62" t="s">
         <v>108</v>
@@ -2655,25 +2624,25 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="C63" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D63">
-        <v>384</v>
+        <v>357</v>
       </c>
       <c r="E63">
-        <v>174623</v>
+        <v>162923</v>
       </c>
       <c r="F63">
-        <v>8576</v>
+        <v>24188</v>
       </c>
       <c r="G63" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="H63" t="s">
         <v>108</v>
@@ -2681,25 +2650,25 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C64" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D64">
-        <v>420</v>
+        <v>391</v>
       </c>
       <c r="E64">
-        <v>187484</v>
+        <v>172125</v>
       </c>
       <c r="F64">
-        <v>7481</v>
+        <v>12203</v>
       </c>
       <c r="G64" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="H64" t="s">
         <v>108</v>
@@ -2707,25 +2676,25 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C65" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D65">
-        <v>352</v>
+        <v>384</v>
       </c>
       <c r="E65">
-        <v>145854</v>
+        <v>174623</v>
       </c>
       <c r="F65">
-        <v>3759</v>
+        <v>8576</v>
       </c>
       <c r="G65" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="H65" t="s">
         <v>108</v>
@@ -2733,25 +2702,25 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C66" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="D66">
-        <v>361</v>
+        <v>420</v>
       </c>
       <c r="E66">
-        <v>140211</v>
+        <v>187484</v>
       </c>
       <c r="F66">
-        <v>3470</v>
+        <v>7481</v>
       </c>
       <c r="G66" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="H66" t="s">
         <v>108</v>
@@ -2759,418 +2728,470 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C67" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D67">
-        <v>309</v>
+        <v>352</v>
       </c>
       <c r="E67">
-        <v>120512</v>
+        <v>145854</v>
       </c>
       <c r="F67">
-        <v>4450</v>
+        <v>3759</v>
       </c>
       <c r="G67" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="H67" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="2">
-        <v>67</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D68" s="2">
-        <v>1420</v>
-      </c>
-      <c r="E68" s="2">
-        <v>912718</v>
-      </c>
-      <c r="F68" s="2">
-        <v>82677</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>42</v>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>65</v>
+      </c>
+      <c r="B68" t="s">
+        <v>168</v>
+      </c>
+      <c r="C68" t="s">
+        <v>169</v>
+      </c>
+      <c r="D68">
+        <v>361</v>
+      </c>
+      <c r="E68">
+        <v>140211</v>
+      </c>
+      <c r="F68">
+        <v>3470</v>
+      </c>
+      <c r="G68" t="s">
+        <v>170</v>
+      </c>
+      <c r="H68" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C69" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D69">
-        <v>3668</v>
+        <v>309</v>
       </c>
       <c r="E69">
-        <v>1999328</v>
+        <v>120512</v>
       </c>
       <c r="F69">
-        <v>172704</v>
+        <v>4450</v>
       </c>
       <c r="G69" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="H69" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
-        <v>69</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D70" s="1">
-        <v>2753</v>
-      </c>
-      <c r="E70" s="1">
-        <v>1494016</v>
-      </c>
-      <c r="F70" s="1">
-        <v>300528</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>185</v>
+    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
+        <v>67</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D70" s="2">
+        <v>1420</v>
+      </c>
+      <c r="E70" s="2">
+        <v>912718</v>
+      </c>
+      <c r="F70" s="2">
+        <v>82677</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C71" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="D71">
-        <v>2825</v>
+        <v>3668</v>
       </c>
       <c r="E71">
-        <v>1502966</v>
+        <v>1999328</v>
       </c>
       <c r="F71">
-        <v>4659</v>
+        <v>172704</v>
       </c>
       <c r="G71" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H71" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72" t="s">
-        <v>190</v>
-      </c>
-      <c r="C72" t="s">
-        <v>190</v>
-      </c>
-      <c r="D72">
-        <v>226</v>
-      </c>
-      <c r="E72">
-        <v>111762</v>
-      </c>
-      <c r="F72">
-        <v>5571</v>
-      </c>
-      <c r="G72" t="s">
-        <v>191</v>
-      </c>
-      <c r="H72" t="s">
-        <v>192</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>69</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D72" s="1">
+        <v>2753</v>
+      </c>
+      <c r="E72" s="1">
+        <v>1494016</v>
+      </c>
+      <c r="F72" s="1">
+        <v>300528</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C73" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D73">
-        <v>244</v>
+        <v>2825</v>
       </c>
       <c r="E73">
-        <v>128789</v>
+        <v>1502966</v>
       </c>
       <c r="F73">
-        <v>1822</v>
+        <v>4659</v>
       </c>
       <c r="G73" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="H73" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C74" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="D74">
-        <v>295</v>
+        <v>226</v>
       </c>
       <c r="E74">
-        <v>150496</v>
+        <v>111762</v>
       </c>
       <c r="F74">
-        <v>1437</v>
+        <v>5571</v>
       </c>
       <c r="G74" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="H74" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C75" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D75">
-        <v>336</v>
+        <v>244</v>
       </c>
       <c r="E75">
-        <v>163541</v>
+        <v>128789</v>
       </c>
       <c r="F75">
-        <v>1294</v>
+        <v>1822</v>
       </c>
       <c r="G75" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="H75" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C76" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D76">
-        <v>327</v>
+        <v>295</v>
       </c>
       <c r="E76">
-        <v>166181</v>
+        <v>150496</v>
       </c>
       <c r="F76">
-        <v>1515</v>
+        <v>1437</v>
       </c>
       <c r="G76" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="H76" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C77" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D77">
-        <v>271</v>
+        <v>336</v>
       </c>
       <c r="E77">
-        <v>121058</v>
+        <v>163541</v>
       </c>
       <c r="F77">
-        <v>1071</v>
+        <v>1294</v>
       </c>
       <c r="G77" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="H77" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B78" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C78" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D78">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="E78">
-        <v>166699</v>
+        <v>166181</v>
       </c>
       <c r="F78">
-        <v>880</v>
+        <v>1515</v>
       </c>
       <c r="G78" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="H78" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C79" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D79">
-        <v>364</v>
+        <v>271</v>
       </c>
       <c r="E79">
-        <v>171446</v>
+        <v>121058</v>
       </c>
       <c r="F79">
-        <v>796</v>
+        <v>1071</v>
       </c>
       <c r="G79" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="H79" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C80" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D80">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="E80">
-        <v>122391</v>
+        <v>166699</v>
       </c>
       <c r="F80">
-        <v>493</v>
+        <v>880</v>
       </c>
       <c r="G80" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="H80" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C81" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D81">
-        <v>267</v>
+        <v>364</v>
       </c>
       <c r="E81">
-        <v>108057</v>
+        <v>171446</v>
       </c>
       <c r="F81">
-        <v>485</v>
+        <v>796</v>
       </c>
       <c r="G81" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="H81" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82">
+        <v>79</v>
+      </c>
+      <c r="B82" t="s">
+        <v>202</v>
+      </c>
+      <c r="C82" t="s">
+        <v>202</v>
+      </c>
+      <c r="D82">
+        <v>299</v>
+      </c>
+      <c r="E82">
+        <v>122391</v>
+      </c>
+      <c r="F82">
+        <v>493</v>
+      </c>
+      <c r="G82" t="s">
+        <v>203</v>
+      </c>
+      <c r="H82" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>80</v>
+      </c>
+      <c r="B83" t="s">
+        <v>204</v>
+      </c>
+      <c r="C83" t="s">
+        <v>204</v>
+      </c>
+      <c r="D83">
+        <v>267</v>
+      </c>
+      <c r="E83">
+        <v>108057</v>
+      </c>
+      <c r="F83">
+        <v>485</v>
+      </c>
+      <c r="G83" t="s">
+        <v>205</v>
+      </c>
+      <c r="H83" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84">
         <v>81</v>
       </c>
-      <c r="B82" t="s">
-        <v>211</v>
-      </c>
-      <c r="C82" t="s">
-        <v>211</v>
-      </c>
-      <c r="D82">
+      <c r="B84" t="s">
+        <v>206</v>
+      </c>
+      <c r="C84" t="s">
+        <v>206</v>
+      </c>
+      <c r="D84">
         <v>330</v>
       </c>
-      <c r="E82">
+      <c r="E84">
         <v>139130</v>
       </c>
-      <c r="F82">
+      <c r="F84">
         <v>739</v>
       </c>
-      <c r="G82" t="s">
-        <v>212</v>
-      </c>
-      <c r="H82" t="s">
-        <v>192</v>
+      <c r="G84" t="s">
+        <v>207</v>
+      </c>
+      <c r="H84" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
